--- a/Excel/Mapper/Lab.NpoiMapper/NETCore31/Input.xlsx
+++ b/Excel/Mapper/Lab.NpoiMapper/NETCore31/Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\sample.dotblog\Excel\Mapper\Lab.NpoiMapper\NETCore31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1A339-905C-4384-83EC-A87359D92FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AFB2B-4FF2-431E-8551-5493FB1AE77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6864" yWindow="-10968" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>LocationID</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocationID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthdaty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,8 +180,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -505,10 +516,11 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,10 +543,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -556,8 +571,14 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="1">
+        <v>32397</v>
+      </c>
+      <c r="I2">
+        <v>404</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -578,6 +599,9 @@
       </c>
       <c r="G3" t="s">
         <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>27994</v>
       </c>
     </row>
   </sheetData>
@@ -589,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8425F46-341B-4FCD-99BD-0BD4CDBB013A}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -604,12 +628,13 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -630,10 +655,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -655,8 +683,11 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="1">
+        <v>29972</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -677,10 +708,14 @@
       </c>
       <c r="G3" t="s">
         <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>26878</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Mapper/Lab.NpoiMapper/NETCore31/Input.xlsx
+++ b/Excel/Mapper/Lab.NpoiMapper/NETCore31/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\sample.dotblog\Excel\Mapper\Lab.NpoiMapper\NETCore31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AFB2B-4FF2-431E-8551-5493FB1AE77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3667F-91C6-490E-BA82-500CC2FB009C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6864" yWindow="-10968" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>LocationID</t>
   </si>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_USER1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_USER2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廣告部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEV_USER3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEV_USER4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +119,22 @@
   </si>
   <si>
     <t>Birthdaty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經濟部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -534,16 +534,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -557,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2">
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>32397</v>
@@ -592,13 +592,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>27994</v>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8425F46-341B-4FCD-99BD-0BD4CDBB013A}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -646,16 +646,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -663,25 +663,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>29972</v>
@@ -689,28 +689,54 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <v>26878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>29776</v>
       </c>
     </row>
   </sheetData>
